--- a/Reports/graphing.xlsx
+++ b/Reports/graphing.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvin\GitHub\FYP-code\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATAN0\Github\FYP\FYP-code\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F16A70-E74E-495D-B788-E7F805B6598D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370FAAF9-2DB5-460C-B5B8-4CC932F24929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -234,9 +242,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -245,6 +250,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4902,19 +4910,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4922,7 +4931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4948,19 +4957,19 @@
         <v>3</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="8">
+      <c r="O2" s="12">
         <v>43860</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="8">
+      <c r="T2" s="12">
         <v>43887</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
     </row>
-    <row r="3" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>43860</v>
       </c>
@@ -4986,27 +4995,27 @@
         <v>25.000276880000001</v>
       </c>
       <c r="N3" s="7"/>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="S3" s="7"/>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>43887</v>
       </c>
@@ -5031,90 +5040,90 @@
       <c r="I4" s="4">
         <v>6.8663591369999999</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>8.4894158616999995</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>100.20252896300001</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>12.3335378776</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="10">
         <v>5.5151560079999999</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="10">
         <v>120.1595212</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="10">
         <v>5.8604553089999998</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N5" s="10" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>7.755643225</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>102.57978540000001</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>10.105237020000001</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="10">
         <v>5.6012972530000003</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="10">
         <v>152.06239919999999</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="10">
         <v>5.5908521169999998</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>10.184583</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>129.08240799999999</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>14.176565999999999</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="10">
         <v>11.381385</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="10">
         <v>307.00576599999999</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="10">
         <v>12.037862000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -5139,32 +5148,32 @@
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <v>14.090496</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>253.857134</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>17.958046</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="10">
         <v>5.343782</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="10">
         <v>146.766705</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="10">
         <v>5.2830859999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>43860</v>
       </c>
@@ -5189,32 +5198,32 @@
       <c r="I8" s="6">
         <v>22.975527769999999</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="10">
         <v>8.8410419999999998</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>124.084315</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>12.930816</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="10">
         <v>6.1889580000000004</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="10">
         <v>155.74364800000001</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="10">
         <v>6.2806579999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>43887</v>
       </c>
@@ -5240,7 +5249,7 @@
         <v>16.923621279999999</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5248,19 +5257,19 @@
         <v>11</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="8" t="s">
+      <c r="T11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -5286,27 +5295,27 @@
         <v>3</v>
       </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="8" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="7"/>
-      <c r="T12" s="9" t="s">
+      <c r="T12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="U12" s="9" t="s">
+      <c r="U12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V12" s="9" t="s">
+      <c r="V12" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>43860</v>
       </c>
@@ -5331,32 +5340,32 @@
       <c r="I13" s="6">
         <v>14.209353</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <v>18.946478419999998</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="11">
         <v>373.21588430000003</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="11">
         <v>25.000276880000001</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="S13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="10">
         <v>6.4494236880000004</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="10">
         <v>145.94401210000001</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="10">
         <v>6.8663591369999999</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>43887</v>
       </c>
@@ -5381,90 +5390,90 @@
       <c r="I14" s="4">
         <v>10.957023</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="11">
         <v>17.28722707</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="11">
         <v>327.76258660000002</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="11">
         <v>22.975527769999999</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="10">
         <v>14.530308809999999</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="10">
         <v>417.97162630000003</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="10">
         <v>16.923621279999999</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N15" s="10" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="11">
         <v>10.222083</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <v>129.52378300000001</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="11">
         <v>14.209353</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="S15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="10">
         <v>10.286458</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="10">
         <v>259.49196899999998</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="10">
         <v>10.957023</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="11">
         <v>10.787839999999999</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="11">
         <v>190.39368200000001</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="11">
         <v>13.769171</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="10">
         <v>13.088314</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="10">
         <v>304.974627</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="10">
         <v>14.723819000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -5489,32 +5498,32 @@
       <c r="I17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="11">
         <v>5.1427079999999998</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="11">
         <v>58.070031</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="11">
         <v>6.9794299999999998</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="S17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="10">
         <v>9.233333</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="10">
         <v>276.53605800000003</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17" s="10">
         <v>9.9353350000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>43860</v>
       </c>
@@ -5540,7 +5549,7 @@
         <v>13.769171</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>43887</v>
       </c>
@@ -5566,15 +5575,65 @@
         <v>14.723819000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f xml:space="preserve"> ((O15-O6)/O6)*100</f>
+        <v>0.36820358771684264</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20:V20" si="0" xml:space="preserve"> ((P15-P6)/P6)*100</f>
+        <v>0.34193272874179892</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>0.2312760368060981</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>-9.6203317961741934</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>-15.476516164194784</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>-8.9786624900667658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
+      <c r="O21">
+        <f t="shared" ref="O21:Q21" si="1" xml:space="preserve"> ((O16-O7)/O7)*100</f>
+        <v>-23.438891008520926</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>-24.999672453562006</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>-23.325895256087435</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ref="T21:V21" si="2" xml:space="preserve"> ((T16-T7)/T7)*100</f>
+        <v>144.92604675864399</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>107.7955126130276</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>178.69731819622095</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -5599,8 +5658,32 @@
       <c r="I22" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="O22">
+        <f t="shared" ref="O22:Q22" si="3" xml:space="preserve"> ((O17-O8)/O8)*100</f>
+        <v>-41.831426657627006</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>-53.201151168864492</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>-46.024829368850348</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ref="T22:V22" si="4" xml:space="preserve"> ((T17-T8)/T8)*100</f>
+        <v>49.190429148170004</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>77.558482513521199</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="4"/>
+        <v>58.189396716076573</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>43860</v>
       </c>
@@ -5626,7 +5709,7 @@
         <v>6.9794299999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>43887</v>
       </c>
